--- a/ProbableCasesOverTimeByCounty/2021-02-11.xlsx
+++ b/ProbableCasesOverTimeByCounty/2021-02-11.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="360">
   <si>
-    <t>COVID-19 Probable Cases by County, 11/1/2020 - 02/10/21 at 9:30 AM CST</t>
+    <t>COVID-19 Probable Cases by County, 11/1/2020 - 02/11/21 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -327,6 +327,9 @@
   </si>
   <si>
     <t>Probable 2021-02-10</t>
+  </si>
+  <si>
+    <t>Probable 2021-02-11</t>
   </si>
   <si>
     <t>Anderson</t>
@@ -1307,6 +1310,7 @@
     <col min="101" max="101" width="12.0" customWidth="true"/>
     <col min="102" max="102" width="12.0" customWidth="true"/>
     <col min="103" max="103" width="12.0" customWidth="true"/>
+    <col min="104" max="104" width="12.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1629,10 +1633,13 @@
       <c r="CY3" t="s" s="10">
         <v>104</v>
       </c>
+      <c r="CZ3" t="s" s="10">
+        <v>105</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B4" t="n">
         <v>343.0</v>
@@ -1938,12 +1945,15 @@
         <v>1225.0</v>
       </c>
       <c r="CY4" t="n">
+        <v>1225.0</v>
+      </c>
+      <c r="CZ4" t="n">
         <v>1225.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -2249,12 +2259,15 @@
         <v>0.0</v>
       </c>
       <c r="CY5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ5" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B6" t="n">
         <v>605.0</v>
@@ -2560,12 +2573,15 @@
         <v>3059.0</v>
       </c>
       <c r="CY6" t="n">
+        <v>3150.0</v>
+      </c>
+      <c r="CZ6" t="n">
         <v>3150.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B7" t="n">
         <v>17.0</v>
@@ -2872,11 +2888,14 @@
       </c>
       <c r="CY7" t="n">
         <v>278.0</v>
+      </c>
+      <c r="CZ7" t="n">
+        <v>283.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B8" t="n">
         <v>27.0</v>
@@ -3182,12 +3201,15 @@
         <v>92.0</v>
       </c>
       <c r="CY8" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="CZ8" t="n">
         <v>88.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B9" t="n">
         <v>2.0</v>
@@ -3493,12 +3515,15 @@
         <v>42.0</v>
       </c>
       <c r="CY9" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="CZ9" t="n">
         <v>42.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B10" t="n">
         <v>223.0</v>
@@ -3805,11 +3830,14 @@
       </c>
       <c r="CY10" t="n">
         <v>1145.0</v>
+      </c>
+      <c r="CZ10" t="n">
+        <v>1155.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B11" t="n">
         <v>44.0</v>
@@ -4116,11 +4144,14 @@
       </c>
       <c r="CY11" t="n">
         <v>241.0</v>
+      </c>
+      <c r="CZ11" t="n">
+        <v>243.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B12" t="n">
         <v>48.0</v>
@@ -4427,11 +4458,14 @@
       </c>
       <c r="CY12" t="n">
         <v>207.0</v>
+      </c>
+      <c r="CZ12" t="n">
+        <v>208.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B13" t="n">
         <v>22.0</v>
@@ -4737,12 +4771,15 @@
         <v>270.0</v>
       </c>
       <c r="CY13" t="n">
+        <v>272.0</v>
+      </c>
+      <c r="CZ13" t="n">
         <v>272.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B14" t="n">
         <v>339.0</v>
@@ -5049,11 +5086,14 @@
       </c>
       <c r="CY14" t="n">
         <v>1806.0</v>
+      </c>
+      <c r="CZ14" t="n">
+        <v>1809.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B15" t="n">
         <v>60.0</v>
@@ -5359,12 +5399,15 @@
         <v>175.0</v>
       </c>
       <c r="CY15" t="n">
+        <v>175.0</v>
+      </c>
+      <c r="CZ15" t="n">
         <v>175.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B16" t="n">
         <v>28.0</v>
@@ -5671,11 +5714,14 @@
       </c>
       <c r="CY16" t="n">
         <v>445.0</v>
+      </c>
+      <c r="CZ16" t="n">
+        <v>448.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -5981,12 +6027,15 @@
         <v>0.0</v>
       </c>
       <c r="CY17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ17" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B18" t="n">
         <v>12314.0</v>
@@ -6293,11 +6342,14 @@
       </c>
       <c r="CY18" t="n">
         <v>28733.0</v>
+      </c>
+      <c r="CZ18" t="n">
+        <v>28900.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B19" t="n">
         <v>17.0</v>
@@ -6603,12 +6655,15 @@
         <v>101.0</v>
       </c>
       <c r="CY19" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="CZ19" t="n">
         <v>103.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B20" t="n">
         <v>2.0</v>
@@ -6914,12 +6969,15 @@
         <v>6.0</v>
       </c>
       <c r="CY20" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="CZ20" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B21" t="n">
         <v>39.0</v>
@@ -7226,11 +7284,14 @@
       </c>
       <c r="CY21" t="n">
         <v>277.0</v>
+      </c>
+      <c r="CZ21" t="n">
+        <v>278.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B22" t="n">
         <v>457.0</v>
@@ -7537,11 +7598,14 @@
       </c>
       <c r="CY22" t="n">
         <v>1816.0</v>
+      </c>
+      <c r="CZ22" t="n">
+        <v>1826.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B23" t="n">
         <v>187.0</v>
@@ -7848,11 +7912,14 @@
       </c>
       <c r="CY23" t="n">
         <v>4316.0</v>
+      </c>
+      <c r="CZ23" t="n">
+        <v>4537.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B24" t="n">
         <v>1120.0</v>
@@ -8159,11 +8226,14 @@
       </c>
       <c r="CY24" t="n">
         <v>3391.0</v>
+      </c>
+      <c r="CZ24" t="n">
+        <v>3422.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B25" t="n">
         <v>10.0</v>
@@ -8470,11 +8540,14 @@
       </c>
       <c r="CY25" t="n">
         <v>73.0</v>
+      </c>
+      <c r="CZ25" t="n">
+        <v>74.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B26" t="n">
         <v>7.0</v>
@@ -8780,12 +8853,15 @@
         <v>56.0</v>
       </c>
       <c r="CY26" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="CZ26" t="n">
         <v>58.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B27" t="n">
         <v>19.0</v>
@@ -9091,12 +9167,15 @@
         <v>107.0</v>
       </c>
       <c r="CY27" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="CZ27" t="n">
         <v>106.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B28" t="n">
         <v>350.0</v>
@@ -9402,12 +9481,15 @@
         <v>2038.0</v>
       </c>
       <c r="CY28" t="n">
+        <v>2038.0</v>
+      </c>
+      <c r="CZ28" t="n">
         <v>2038.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B29" t="n">
         <v>52.0</v>
@@ -9714,11 +9796,14 @@
       </c>
       <c r="CY29" t="n">
         <v>375.0</v>
+      </c>
+      <c r="CZ29" t="n">
+        <v>379.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B30" t="n">
         <v>39.0</v>
@@ -10025,11 +10110,14 @@
       </c>
       <c r="CY30" t="n">
         <v>364.0</v>
+      </c>
+      <c r="CZ30" t="n">
+        <v>377.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B31" t="n">
         <v>51.0</v>
@@ -10336,11 +10424,14 @@
       </c>
       <c r="CY31" t="n">
         <v>262.0</v>
+      </c>
+      <c r="CZ31" t="n">
+        <v>265.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B32" t="n">
         <v>14.0</v>
@@ -10646,12 +10737,15 @@
         <v>166.0</v>
       </c>
       <c r="CY32" t="n">
+        <v>185.0</v>
+      </c>
+      <c r="CZ32" t="n">
         <v>185.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B33" t="n">
         <v>89.0</v>
@@ -10957,12 +11051,15 @@
         <v>528.0</v>
       </c>
       <c r="CY33" t="n">
+        <v>528.0</v>
+      </c>
+      <c r="CZ33" t="n">
         <v>528.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B34" t="n">
         <v>0.0</v>
@@ -11268,12 +11365,15 @@
         <v>0.0</v>
       </c>
       <c r="CY34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ34" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B35" t="n">
         <v>74.0</v>
@@ -11580,11 +11680,14 @@
       </c>
       <c r="CY35" t="n">
         <v>362.0</v>
+      </c>
+      <c r="CZ35" t="n">
+        <v>364.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B36" t="n">
         <v>16.0</v>
@@ -11890,12 +11993,15 @@
         <v>140.0</v>
       </c>
       <c r="CY36" t="n">
+        <v>141.0</v>
+      </c>
+      <c r="CZ36" t="n">
         <v>141.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B37" t="n">
         <v>246.0</v>
@@ -12202,11 +12308,14 @@
       </c>
       <c r="CY37" t="n">
         <v>624.0</v>
+      </c>
+      <c r="CZ37" t="n">
+        <v>628.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B38" t="n">
         <v>52.0</v>
@@ -12512,12 +12621,15 @@
         <v>250.0</v>
       </c>
       <c r="CY38" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="CZ38" t="n">
         <v>250.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B39" t="n">
         <v>0.0</v>
@@ -12823,12 +12935,15 @@
         <v>0.0</v>
       </c>
       <c r="CY39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ39" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B40" t="n">
         <v>512.0</v>
@@ -13135,11 +13250,14 @@
       </c>
       <c r="CY40" t="n">
         <v>1761.0</v>
+      </c>
+      <c r="CZ40" t="n">
+        <v>1771.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B41" t="n">
         <v>22.0</v>
@@ -13445,12 +13563,15 @@
         <v>21.0</v>
       </c>
       <c r="CY41" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="CZ41" t="n">
         <v>23.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B42" t="n">
         <v>7.0</v>
@@ -13756,12 +13877,15 @@
         <v>74.0</v>
       </c>
       <c r="CY42" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="CZ42" t="n">
         <v>75.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B43" t="n">
         <v>7.0</v>
@@ -14067,12 +14191,15 @@
         <v>22.0</v>
       </c>
       <c r="CY43" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="CZ43" t="n">
         <v>22.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B44" t="n">
         <v>41.0</v>
@@ -14378,12 +14505,15 @@
         <v>226.0</v>
       </c>
       <c r="CY44" t="n">
+        <v>226.0</v>
+      </c>
+      <c r="CZ44" t="n">
         <v>226.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B45" t="n">
         <v>27.0</v>
@@ -14689,12 +14819,15 @@
         <v>229.0</v>
       </c>
       <c r="CY45" t="n">
+        <v>230.0</v>
+      </c>
+      <c r="CZ45" t="n">
         <v>230.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B46" t="n">
         <v>535.0</v>
@@ -15001,11 +15134,14 @@
       </c>
       <c r="CY46" t="n">
         <v>11662.0</v>
+      </c>
+      <c r="CZ46" t="n">
+        <v>11780.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B47" t="n">
         <v>2.0</v>
@@ -15311,12 +15447,15 @@
         <v>70.0</v>
       </c>
       <c r="CY47" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="CZ47" t="n">
         <v>70.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B48" t="n">
         <v>50.0</v>
@@ -15623,11 +15762,14 @@
       </c>
       <c r="CY48" t="n">
         <v>226.0</v>
+      </c>
+      <c r="CZ48" t="n">
+        <v>234.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B49" t="n">
         <v>912.0</v>
@@ -15934,11 +16076,14 @@
       </c>
       <c r="CY49" t="n">
         <v>4112.0</v>
+      </c>
+      <c r="CZ49" t="n">
+        <v>4132.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B50" t="n">
         <v>18.0</v>
@@ -16245,11 +16390,14 @@
       </c>
       <c r="CY50" t="n">
         <v>228.0</v>
+      </c>
+      <c r="CZ50" t="n">
+        <v>231.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B51" t="n">
         <v>18.0</v>
@@ -16555,12 +16703,15 @@
         <v>136.0</v>
       </c>
       <c r="CY51" t="n">
+        <v>137.0</v>
+      </c>
+      <c r="CZ51" t="n">
         <v>137.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B52" t="n">
         <v>99.0</v>
@@ -16867,11 +17018,14 @@
       </c>
       <c r="CY52" t="n">
         <v>391.0</v>
+      </c>
+      <c r="CZ52" t="n">
+        <v>393.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B53" t="n">
         <v>34.0</v>
@@ -17178,11 +17332,14 @@
       </c>
       <c r="CY53" t="n">
         <v>217.0</v>
+      </c>
+      <c r="CZ53" t="n">
+        <v>220.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B54" t="n">
         <v>23.0</v>
@@ -17488,12 +17645,15 @@
         <v>45.0</v>
       </c>
       <c r="CY54" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="CZ54" t="n">
         <v>45.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B55" t="n">
         <v>117.0</v>
@@ -17800,11 +17960,14 @@
       </c>
       <c r="CY55" t="n">
         <v>298.0</v>
+      </c>
+      <c r="CZ55" t="n">
+        <v>300.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B56" t="n">
         <v>48.0</v>
@@ -18111,11 +18274,14 @@
       </c>
       <c r="CY56" t="n">
         <v>335.0</v>
+      </c>
+      <c r="CZ56" t="n">
+        <v>342.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B57" t="n">
         <v>50.0</v>
@@ -18421,12 +18587,15 @@
         <v>165.0</v>
       </c>
       <c r="CY57" t="n">
+        <v>196.0</v>
+      </c>
+      <c r="CZ57" t="n">
         <v>196.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B58" t="n">
         <v>10.0</v>
@@ -18732,12 +18901,15 @@
         <v>22.0</v>
       </c>
       <c r="CY58" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="CZ58" t="n">
         <v>22.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B59" t="n">
         <v>9.0</v>
@@ -19043,12 +19215,15 @@
         <v>47.0</v>
       </c>
       <c r="CY59" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="CZ59" t="n">
         <v>49.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B60" t="n">
         <v>5948.0</v>
@@ -19355,11 +19530,14 @@
       </c>
       <c r="CY60" t="n">
         <v>32640.0</v>
+      </c>
+      <c r="CZ60" t="n">
+        <v>32853.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B61" t="n">
         <v>0.0</v>
@@ -19665,12 +19843,15 @@
         <v>0.0</v>
       </c>
       <c r="CY61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ61" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B62" t="n">
         <v>228.0</v>
@@ -19977,11 +20158,14 @@
       </c>
       <c r="CY62" t="n">
         <v>632.0</v>
+      </c>
+      <c r="CZ62" t="n">
+        <v>635.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B63" t="n">
         <v>22.0</v>
@@ -20287,12 +20471,15 @@
         <v>122.0</v>
       </c>
       <c r="CY63" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="CZ63" t="n">
         <v>123.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B64" t="n">
         <v>2000.0</v>
@@ -20599,11 +20786,14 @@
       </c>
       <c r="CY64" t="n">
         <v>12887.0</v>
+      </c>
+      <c r="CZ64" t="n">
+        <v>13144.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B65" t="n">
         <v>0.0</v>
@@ -20909,12 +21099,15 @@
         <v>0.0</v>
       </c>
       <c r="CY65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ65" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B66" t="n">
         <v>16.0</v>
@@ -21220,12 +21413,15 @@
         <v>49.0</v>
       </c>
       <c r="CY66" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="CZ66" t="n">
         <v>55.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B67" t="n">
         <v>5.0</v>
@@ -21532,11 +21728,14 @@
       </c>
       <c r="CY67" t="n">
         <v>133.0</v>
+      </c>
+      <c r="CZ67" t="n">
+        <v>138.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B68" t="n">
         <v>24.0</v>
@@ -21842,12 +22041,15 @@
         <v>175.0</v>
       </c>
       <c r="CY68" t="n">
+        <v>174.0</v>
+      </c>
+      <c r="CZ68" t="n">
         <v>174.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B69" t="n">
         <v>11.0</v>
@@ -22154,11 +22356,14 @@
       </c>
       <c r="CY69" t="n">
         <v>89.0</v>
+      </c>
+      <c r="CZ69" t="n">
+        <v>90.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B70" t="n">
         <v>96.0</v>
@@ -22465,11 +22670,14 @@
       </c>
       <c r="CY70" t="n">
         <v>327.0</v>
+      </c>
+      <c r="CZ70" t="n">
+        <v>329.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B71" t="n">
         <v>2566.0</v>
@@ -22776,11 +22984,14 @@
       </c>
       <c r="CY71" t="n">
         <v>6966.0</v>
+      </c>
+      <c r="CZ71" t="n">
+        <v>7162.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B72" t="n">
         <v>0.0</v>
@@ -23086,12 +23297,15 @@
         <v>38.0</v>
       </c>
       <c r="CY72" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="CZ72" t="n">
         <v>38.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B73" t="n">
         <v>533.0</v>
@@ -23398,11 +23612,14 @@
       </c>
       <c r="CY73" t="n">
         <v>2542.0</v>
+      </c>
+      <c r="CZ73" t="n">
+        <v>2564.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B74" t="n">
         <v>0.0</v>
@@ -23708,12 +23925,15 @@
         <v>0.0</v>
       </c>
       <c r="CY74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ74" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B75" t="n">
         <v>383.0</v>
@@ -24020,11 +24240,14 @@
       </c>
       <c r="CY75" t="n">
         <v>1213.0</v>
+      </c>
+      <c r="CZ75" t="n">
+        <v>1215.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B76" t="n">
         <v>23.0</v>
@@ -24331,11 +24554,14 @@
       </c>
       <c r="CY76" t="n">
         <v>150.0</v>
+      </c>
+      <c r="CZ76" t="n">
+        <v>153.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B77" t="n">
         <v>41.0</v>
@@ -24642,11 +24868,14 @@
       </c>
       <c r="CY77" t="n">
         <v>624.0</v>
+      </c>
+      <c r="CZ77" t="n">
+        <v>628.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B78" t="n">
         <v>172.0</v>
@@ -24953,11 +25182,14 @@
       </c>
       <c r="CY78" t="n">
         <v>824.0</v>
+      </c>
+      <c r="CZ78" t="n">
+        <v>837.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B79" t="n">
         <v>0.0</v>
@@ -25263,12 +25495,15 @@
         <v>0.0</v>
       </c>
       <c r="CY79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ79" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B80" t="n">
         <v>85.0</v>
@@ -25575,11 +25810,14 @@
       </c>
       <c r="CY80" t="n">
         <v>435.0</v>
+      </c>
+      <c r="CZ80" t="n">
+        <v>437.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B81" t="n">
         <v>2.0</v>
@@ -25885,12 +26123,15 @@
         <v>32.0</v>
       </c>
       <c r="CY81" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="CZ81" t="n">
         <v>32.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B82" t="n">
         <v>681.0</v>
@@ -26197,11 +26438,14 @@
       </c>
       <c r="CY82" t="n">
         <v>6481.0</v>
+      </c>
+      <c r="CZ82" t="n">
+        <v>6571.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B83" t="n">
         <v>59.0</v>
@@ -26507,12 +26751,15 @@
         <v>202.0</v>
       </c>
       <c r="CY83" t="n">
+        <v>203.0</v>
+      </c>
+      <c r="CZ83" t="n">
         <v>203.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B84" t="n">
         <v>81.0</v>
@@ -26819,11 +27066,14 @@
       </c>
       <c r="CY84" t="n">
         <v>680.0</v>
+      </c>
+      <c r="CZ84" t="n">
+        <v>684.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B85" t="n">
         <v>38.0</v>
@@ -27130,11 +27380,14 @@
       </c>
       <c r="CY85" t="n">
         <v>523.0</v>
+      </c>
+      <c r="CZ85" t="n">
+        <v>527.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B86" t="n">
         <v>0.0</v>
@@ -27440,12 +27693,15 @@
         <v>0.0</v>
       </c>
       <c r="CY86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ86" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B87" t="n">
         <v>508.0</v>
@@ -27752,11 +28008,14 @@
       </c>
       <c r="CY87" t="n">
         <v>4346.0</v>
+      </c>
+      <c r="CZ87" t="n">
+        <v>4412.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B88" t="n">
         <v>26.0</v>
@@ -28062,12 +28321,15 @@
         <v>125.0</v>
       </c>
       <c r="CY88" t="n">
+        <v>147.0</v>
+      </c>
+      <c r="CZ88" t="n">
         <v>147.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B89" t="n">
         <v>25.0</v>
@@ -28374,11 +28636,14 @@
       </c>
       <c r="CY89" t="n">
         <v>671.0</v>
+      </c>
+      <c r="CZ89" t="n">
+        <v>673.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B90" t="n">
         <v>19.0</v>
@@ -28684,12 +28949,15 @@
         <v>65.0</v>
       </c>
       <c r="CY90" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="CZ90" t="n">
         <v>63.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B91" t="n">
         <v>46.0</v>
@@ -28995,12 +29263,15 @@
         <v>133.0</v>
       </c>
       <c r="CY91" t="n">
+        <v>133.0</v>
+      </c>
+      <c r="CZ91" t="n">
         <v>133.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B92" t="n">
         <v>36.0</v>
@@ -29307,11 +29578,14 @@
       </c>
       <c r="CY92" t="n">
         <v>233.0</v>
+      </c>
+      <c r="CZ92" t="n">
+        <v>237.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B93" t="n">
         <v>34.0</v>
@@ -29618,11 +29892,14 @@
       </c>
       <c r="CY93" t="n">
         <v>273.0</v>
+      </c>
+      <c r="CZ93" t="n">
+        <v>274.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B94" t="n">
         <v>0.0</v>
@@ -29928,12 +30205,15 @@
         <v>0.0</v>
       </c>
       <c r="CY94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ94" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B95" t="n">
         <v>919.0</v>
@@ -30239,12 +30519,15 @@
         <v>4547.0</v>
       </c>
       <c r="CY95" t="n">
+        <v>4547.0</v>
+      </c>
+      <c r="CZ95" t="n">
         <v>4547.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B96" t="n">
         <v>50.0</v>
@@ -30551,11 +30834,14 @@
       </c>
       <c r="CY96" t="n">
         <v>284.0</v>
+      </c>
+      <c r="CZ96" t="n">
+        <v>286.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B97" t="n">
         <v>387.0</v>
@@ -30862,11 +31148,14 @@
       </c>
       <c r="CY97" t="n">
         <v>2661.0</v>
+      </c>
+      <c r="CZ97" t="n">
+        <v>2680.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B98" t="n">
         <v>0.0</v>
@@ -31172,12 +31461,15 @@
         <v>0.0</v>
       </c>
       <c r="CY98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ98" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B99" t="n">
         <v>9.0</v>
@@ -31483,12 +31775,15 @@
         <v>96.0</v>
       </c>
       <c r="CY99" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="CZ99" t="n">
         <v>98.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B100" t="n">
         <v>15.0</v>
@@ -31794,12 +32089,15 @@
         <v>46.0</v>
       </c>
       <c r="CY100" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="CZ100" t="n">
         <v>46.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B101" t="n">
         <v>61.0</v>
@@ -32106,11 +32404,14 @@
       </c>
       <c r="CY101" t="n">
         <v>424.0</v>
+      </c>
+      <c r="CZ101" t="n">
+        <v>432.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B102" t="n">
         <v>25.0</v>
@@ -32416,12 +32717,15 @@
         <v>55.0</v>
       </c>
       <c r="CY102" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="CZ102" t="n">
         <v>55.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B103" t="n">
         <v>505.0</v>
@@ -32727,12 +33031,15 @@
         <v>2292.0</v>
       </c>
       <c r="CY103" t="n">
+        <v>2320.0</v>
+      </c>
+      <c r="CZ103" t="n">
         <v>2320.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B104" t="n">
         <v>0.0</v>
@@ -33038,12 +33345,15 @@
         <v>0.0</v>
       </c>
       <c r="CY104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ104" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B105" t="n">
         <v>289.0</v>
@@ -33350,11 +33660,14 @@
       </c>
       <c r="CY105" t="n">
         <v>2096.0</v>
+      </c>
+      <c r="CZ105" t="n">
+        <v>2110.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B106" t="n">
         <v>4.0</v>
@@ -33660,12 +33973,15 @@
         <v>56.0</v>
       </c>
       <c r="CY106" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="CZ106" t="n">
         <v>57.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B107" t="n">
         <v>30.0</v>
@@ -33972,11 +34288,14 @@
       </c>
       <c r="CY107" t="n">
         <v>227.0</v>
+      </c>
+      <c r="CZ107" t="n">
+        <v>230.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B108" t="n">
         <v>743.0</v>
@@ -34283,11 +34602,14 @@
       </c>
       <c r="CY108" t="n">
         <v>1752.0</v>
+      </c>
+      <c r="CZ108" t="n">
+        <v>1759.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B109" t="n">
         <v>5.0</v>
@@ -34593,12 +34915,15 @@
         <v>40.0</v>
       </c>
       <c r="CY109" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="CZ109" t="n">
         <v>40.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B110" t="n">
         <v>392.0</v>
@@ -34904,12 +35229,15 @@
         <v>1668.0</v>
       </c>
       <c r="CY110" t="n">
+        <v>1668.0</v>
+      </c>
+      <c r="CZ110" t="n">
         <v>1668.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B111" t="n">
         <v>0.0</v>
@@ -35216,11 +35544,14 @@
       </c>
       <c r="CY111" t="n">
         <v>21253.0</v>
+      </c>
+      <c r="CZ111" t="n">
+        <v>21519.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B112" t="n">
         <v>90.0</v>
@@ -35527,11 +35858,14 @@
       </c>
       <c r="CY112" t="n">
         <v>625.0</v>
+      </c>
+      <c r="CZ112" t="n">
+        <v>629.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B113" t="n">
         <v>77.0</v>
@@ -35837,12 +36171,15 @@
         <v>232.0</v>
       </c>
       <c r="CY113" t="n">
+        <v>261.0</v>
+      </c>
+      <c r="CZ113" t="n">
         <v>261.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B114" t="n">
         <v>235.0</v>
@@ -36149,11 +36486,14 @@
       </c>
       <c r="CY114" t="n">
         <v>1995.0</v>
+      </c>
+      <c r="CZ114" t="n">
+        <v>2007.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B115" t="n">
         <v>475.0</v>
@@ -36460,11 +36800,14 @@
       </c>
       <c r="CY115" t="n">
         <v>1344.0</v>
+      </c>
+      <c r="CZ115" t="n">
+        <v>1350.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B116" t="n">
         <v>175.0</v>
@@ -36770,12 +37113,15 @@
         <v>659.0</v>
       </c>
       <c r="CY116" t="n">
+        <v>659.0</v>
+      </c>
+      <c r="CZ116" t="n">
         <v>659.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B117" t="n">
         <v>709.0</v>
@@ -37082,11 +37428,14 @@
       </c>
       <c r="CY117" t="n">
         <v>1494.0</v>
+      </c>
+      <c r="CZ117" t="n">
+        <v>1498.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B118" t="n">
         <v>9.0</v>
@@ -37393,11 +37742,14 @@
       </c>
       <c r="CY118" t="n">
         <v>75.0</v>
+      </c>
+      <c r="CZ118" t="n">
+        <v>77.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B119" t="n">
         <v>0.0</v>
@@ -37703,12 +38055,15 @@
         <v>0.0</v>
       </c>
       <c r="CY119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ119" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B120" t="n">
         <v>98.0</v>
@@ -38015,11 +38370,14 @@
       </c>
       <c r="CY120" t="n">
         <v>460.0</v>
+      </c>
+      <c r="CZ120" t="n">
+        <v>463.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B121" t="n">
         <v>12.0</v>
@@ -38326,11 +38684,14 @@
       </c>
       <c r="CY121" t="n">
         <v>56.0</v>
+      </c>
+      <c r="CZ121" t="n">
+        <v>58.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B122" t="n">
         <v>11.0</v>
@@ -38637,11 +38998,14 @@
       </c>
       <c r="CY122" t="n">
         <v>73.0</v>
+      </c>
+      <c r="CZ122" t="n">
+        <v>74.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B123" t="n">
         <v>3.0</v>
@@ -38948,11 +39312,14 @@
       </c>
       <c r="CY123" t="n">
         <v>156.0</v>
+      </c>
+      <c r="CZ123" t="n">
+        <v>157.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B124" t="n">
         <v>357.0</v>
@@ -39259,11 +39626,14 @@
       </c>
       <c r="CY124" t="n">
         <v>1319.0</v>
+      </c>
+      <c r="CZ124" t="n">
+        <v>1327.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B125" t="n">
         <v>4.0</v>
@@ -39569,12 +39939,15 @@
         <v>35.0</v>
       </c>
       <c r="CY125" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="CZ125" t="n">
         <v>37.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B126" t="n">
         <v>0.0</v>
@@ -39880,12 +40253,15 @@
         <v>0.0</v>
       </c>
       <c r="CY126" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ126" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B127" t="n">
         <v>2.0</v>
@@ -40191,12 +40567,15 @@
         <v>39.0</v>
       </c>
       <c r="CY127" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="CZ127" t="n">
         <v>36.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B128" t="n">
         <v>50.0</v>
@@ -40503,11 +40882,14 @@
       </c>
       <c r="CY128" t="n">
         <v>498.0</v>
+      </c>
+      <c r="CZ128" t="n">
+        <v>501.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B129" t="n">
         <v>353.0</v>
@@ -40814,11 +41196,14 @@
       </c>
       <c r="CY129" t="n">
         <v>2270.0</v>
+      </c>
+      <c r="CZ129" t="n">
+        <v>2300.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B130" t="n">
         <v>121.0</v>
@@ -41125,11 +41510,14 @@
       </c>
       <c r="CY130" t="n">
         <v>642.0</v>
+      </c>
+      <c r="CZ130" t="n">
+        <v>648.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B131" t="n">
         <v>25.0</v>
@@ -41436,11 +41824,14 @@
       </c>
       <c r="CY131" t="n">
         <v>118.0</v>
+      </c>
+      <c r="CZ131" t="n">
+        <v>116.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B132" t="n">
         <v>376.0</v>
@@ -41747,11 +42138,14 @@
       </c>
       <c r="CY132" t="n">
         <v>1920.0</v>
+      </c>
+      <c r="CZ132" t="n">
+        <v>1957.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B133" t="n">
         <v>132.0</v>
@@ -42058,11 +42452,14 @@
       </c>
       <c r="CY133" t="n">
         <v>1127.0</v>
+      </c>
+      <c r="CZ133" t="n">
+        <v>1140.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B134" t="n">
         <v>0.0</v>
@@ -42368,12 +42765,15 @@
         <v>16.0</v>
       </c>
       <c r="CY134" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="CZ134" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B135" t="n">
         <v>4.0</v>
@@ -42679,12 +43079,15 @@
         <v>41.0</v>
       </c>
       <c r="CY135" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="CZ135" t="n">
         <v>41.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B136" t="n">
         <v>78.0</v>
@@ -42991,11 +43394,14 @@
       </c>
       <c r="CY136" t="n">
         <v>1797.0</v>
+      </c>
+      <c r="CZ136" t="n">
+        <v>1829.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B137" t="n">
         <v>11.0</v>
@@ -43302,11 +43708,14 @@
       </c>
       <c r="CY137" t="n">
         <v>45.0</v>
+      </c>
+      <c r="CZ137" t="n">
+        <v>49.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B138" t="n">
         <v>0.0</v>
@@ -43612,12 +44021,15 @@
         <v>6.0</v>
       </c>
       <c r="CY138" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="CZ138" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B139" t="n">
         <v>1.0</v>
@@ -43923,12 +44335,15 @@
         <v>9.0</v>
       </c>
       <c r="CY139" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="CZ139" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B140" t="n">
         <v>11.0</v>
@@ -44235,11 +44650,14 @@
       </c>
       <c r="CY140" t="n">
         <v>603.0</v>
+      </c>
+      <c r="CZ140" t="n">
+        <v>605.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B141" t="n">
         <v>12.0</v>
@@ -44545,12 +44963,15 @@
         <v>71.0</v>
       </c>
       <c r="CY141" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="CZ141" t="n">
         <v>72.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B142" t="n">
         <v>46.0</v>
@@ -44857,11 +45278,14 @@
       </c>
       <c r="CY142" t="n">
         <v>2874.0</v>
+      </c>
+      <c r="CZ142" t="n">
+        <v>2889.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B143" t="n">
         <v>147.0</v>
@@ -45167,12 +45591,15 @@
         <v>417.0</v>
       </c>
       <c r="CY143" t="n">
+        <v>430.0</v>
+      </c>
+      <c r="CZ143" t="n">
         <v>430.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B144" t="n">
         <v>37.0</v>
@@ -45479,11 +45906,14 @@
       </c>
       <c r="CY144" t="n">
         <v>305.0</v>
+      </c>
+      <c r="CZ144" t="n">
+        <v>306.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B145" t="n">
         <v>3.0</v>
@@ -45789,12 +46219,15 @@
         <v>191.0</v>
       </c>
       <c r="CY145" t="n">
+        <v>191.0</v>
+      </c>
+      <c r="CZ145" t="n">
         <v>191.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B146" t="n">
         <v>35.0</v>
@@ -46101,11 +46534,14 @@
       </c>
       <c r="CY146" t="n">
         <v>334.0</v>
+      </c>
+      <c r="CZ146" t="n">
+        <v>344.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B147" t="n">
         <v>160.0</v>
@@ -46412,11 +46848,14 @@
       </c>
       <c r="CY147" t="n">
         <v>955.0</v>
+      </c>
+      <c r="CZ147" t="n">
+        <v>975.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B148" t="n">
         <v>58.0</v>
@@ -46723,11 +47162,14 @@
       </c>
       <c r="CY148" t="n">
         <v>310.0</v>
+      </c>
+      <c r="CZ148" t="n">
+        <v>312.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B149" t="n">
         <v>583.0</v>
@@ -47034,11 +47476,14 @@
       </c>
       <c r="CY149" t="n">
         <v>1359.0</v>
+      </c>
+      <c r="CZ149" t="n">
+        <v>1363.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B150" t="n">
         <v>120.0</v>
@@ -47345,11 +47790,14 @@
       </c>
       <c r="CY150" t="n">
         <v>526.0</v>
+      </c>
+      <c r="CZ150" t="n">
+        <v>534.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B151" t="n">
         <v>6.0</v>
@@ -47655,12 +48103,15 @@
         <v>23.0</v>
       </c>
       <c r="CY151" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="CZ151" t="n">
         <v>22.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B152" t="n">
         <v>60.0</v>
@@ -47966,12 +48417,15 @@
         <v>245.0</v>
       </c>
       <c r="CY152" t="n">
+        <v>245.0</v>
+      </c>
+      <c r="CZ152" t="n">
         <v>245.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B153" t="n">
         <v>9.0</v>
@@ -48278,11 +48732,14 @@
       </c>
       <c r="CY153" t="n">
         <v>380.0</v>
+      </c>
+      <c r="CZ153" t="n">
+        <v>394.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B154" t="n">
         <v>1.0</v>
@@ -48588,12 +49045,15 @@
         <v>0.0</v>
       </c>
       <c r="CY154" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ154" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B155" t="n">
         <v>0.0</v>
@@ -48899,12 +49359,15 @@
         <v>0.0</v>
       </c>
       <c r="CY155" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ155" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B156" t="n">
         <v>0.0</v>
@@ -49210,12 +49673,15 @@
         <v>0.0</v>
       </c>
       <c r="CY156" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ156" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B157" t="n">
         <v>37.0</v>
@@ -49521,12 +49987,15 @@
         <v>142.0</v>
       </c>
       <c r="CY157" t="n">
+        <v>144.0</v>
+      </c>
+      <c r="CZ157" t="n">
         <v>144.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B158" t="n">
         <v>0.0</v>
@@ -49832,12 +50301,15 @@
         <v>0.0</v>
       </c>
       <c r="CY158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ158" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B159" t="n">
         <v>0.0</v>
@@ -50143,12 +50615,15 @@
         <v>16.0</v>
       </c>
       <c r="CY159" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="CZ159" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B160" t="n">
         <v>46.0</v>
@@ -50455,11 +50930,14 @@
       </c>
       <c r="CY160" t="n">
         <v>208.0</v>
+      </c>
+      <c r="CZ160" t="n">
+        <v>209.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B161" t="n">
         <v>13.0</v>
@@ -50766,11 +51244,14 @@
       </c>
       <c r="CY161" t="n">
         <v>165.0</v>
+      </c>
+      <c r="CZ161" t="n">
+        <v>167.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B162" t="n">
         <v>58.0</v>
@@ -51076,12 +51557,15 @@
         <v>251.0</v>
       </c>
       <c r="CY162" t="n">
+        <v>254.0</v>
+      </c>
+      <c r="CZ162" t="n">
         <v>254.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B163" t="n">
         <v>11.0</v>
@@ -51388,11 +51872,14 @@
       </c>
       <c r="CY163" t="n">
         <v>138.0</v>
+      </c>
+      <c r="CZ163" t="n">
+        <v>139.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B164" t="n">
         <v>49.0</v>
@@ -51699,11 +52186,14 @@
       </c>
       <c r="CY164" t="n">
         <v>322.0</v>
+      </c>
+      <c r="CZ164" t="n">
+        <v>326.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B165" t="n">
         <v>0.0</v>
@@ -52009,12 +52499,15 @@
         <v>0.0</v>
       </c>
       <c r="CY165" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ165" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B166" t="n">
         <v>343.0</v>
@@ -52320,12 +52813,15 @@
         <v>969.0</v>
       </c>
       <c r="CY166" t="n">
+        <v>969.0</v>
+      </c>
+      <c r="CZ166" t="n">
         <v>969.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B167" t="n">
         <v>6.0</v>
@@ -52632,11 +53128,14 @@
       </c>
       <c r="CY167" t="n">
         <v>64.0</v>
+      </c>
+      <c r="CZ167" t="n">
+        <v>65.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B168" t="n">
         <v>0.0</v>
@@ -52942,12 +53441,15 @@
         <v>0.0</v>
       </c>
       <c r="CY168" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ168" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B169" t="n">
         <v>111.0</v>
@@ -53254,11 +53756,14 @@
       </c>
       <c r="CY169" t="n">
         <v>943.0</v>
+      </c>
+      <c r="CZ169" t="n">
+        <v>944.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B170" t="n">
         <v>5.0</v>
@@ -53564,12 +54069,15 @@
         <v>52.0</v>
       </c>
       <c r="CY170" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="CZ170" t="n">
         <v>52.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B171" t="n">
         <v>0.0</v>
@@ -53875,12 +54383,15 @@
         <v>0.0</v>
       </c>
       <c r="CY171" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ171" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B172" t="n">
         <v>36.0</v>
@@ -54186,12 +54697,15 @@
         <v>282.0</v>
       </c>
       <c r="CY172" t="n">
+        <v>288.0</v>
+      </c>
+      <c r="CZ172" t="n">
         <v>288.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B173" t="n">
         <v>865.0</v>
@@ -54498,11 +55012,14 @@
       </c>
       <c r="CY173" t="n">
         <v>7229.0</v>
+      </c>
+      <c r="CZ173" t="n">
+        <v>7397.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B174" t="n">
         <v>159.0</v>
@@ -54808,12 +55325,15 @@
         <v>290.0</v>
       </c>
       <c r="CY174" t="n">
+        <v>294.0</v>
+      </c>
+      <c r="CZ174" t="n">
         <v>294.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B175" t="n">
         <v>58.0</v>
@@ -55120,11 +55640,14 @@
       </c>
       <c r="CY175" t="n">
         <v>247.0</v>
+      </c>
+      <c r="CZ175" t="n">
+        <v>250.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B176" t="n">
         <v>2.0</v>
@@ -55430,12 +55953,15 @@
         <v>46.0</v>
       </c>
       <c r="CY176" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="CZ176" t="n">
         <v>49.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B177" t="n">
         <v>299.0</v>
@@ -55742,11 +56268,14 @@
       </c>
       <c r="CY177" t="n">
         <v>882.0</v>
+      </c>
+      <c r="CZ177" t="n">
+        <v>887.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B178" t="n">
         <v>529.0</v>
@@ -56052,12 +56581,15 @@
         <v>2111.0</v>
       </c>
       <c r="CY178" t="n">
+        <v>2130.0</v>
+      </c>
+      <c r="CZ178" t="n">
         <v>2130.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B179" t="n">
         <v>95.0</v>
@@ -56363,12 +56895,15 @@
         <v>272.0</v>
       </c>
       <c r="CY179" t="n">
+        <v>275.0</v>
+      </c>
+      <c r="CZ179" t="n">
         <v>275.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B180" t="n">
         <v>0.0</v>
@@ -56674,12 +57209,15 @@
         <v>0.0</v>
       </c>
       <c r="CY180" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ180" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B181" t="n">
         <v>5083.0</v>
@@ -56986,11 +57524,14 @@
       </c>
       <c r="CY181" t="n">
         <v>9762.0</v>
+      </c>
+      <c r="CZ181" t="n">
+        <v>9788.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B182" t="n">
         <v>15.0</v>
@@ -57296,12 +57837,15 @@
         <v>104.0</v>
       </c>
       <c r="CY182" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="CZ182" t="n">
         <v>106.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B183" t="n">
         <v>7.0</v>
@@ -57607,12 +58151,15 @@
         <v>123.0</v>
       </c>
       <c r="CY183" t="n">
+        <v>125.0</v>
+      </c>
+      <c r="CZ183" t="n">
         <v>125.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B184" t="n">
         <v>541.0</v>
@@ -57918,12 +58465,15 @@
         <v>3322.0</v>
       </c>
       <c r="CY184" t="n">
+        <v>3346.0</v>
+      </c>
+      <c r="CZ184" t="n">
         <v>3346.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B185" t="n">
         <v>76.0</v>
@@ -58229,12 +58779,15 @@
         <v>352.0</v>
       </c>
       <c r="CY185" t="n">
+        <v>355.0</v>
+      </c>
+      <c r="CZ185" t="n">
         <v>355.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B186" t="n">
         <v>109.0</v>
@@ -58541,11 +59094,14 @@
       </c>
       <c r="CY186" t="n">
         <v>507.0</v>
+      </c>
+      <c r="CZ186" t="n">
+        <v>513.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B187" t="n">
         <v>414.0</v>
@@ -58852,11 +59408,14 @@
       </c>
       <c r="CY187" t="n">
         <v>2634.0</v>
+      </c>
+      <c r="CZ187" t="n">
+        <v>2655.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B188" t="n">
         <v>80.0</v>
@@ -59163,11 +59722,14 @@
       </c>
       <c r="CY188" t="n">
         <v>332.0</v>
+      </c>
+      <c r="CZ188" t="n">
+        <v>333.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B189" t="n">
         <v>66.0</v>
@@ -59474,11 +60036,14 @@
       </c>
       <c r="CY189" t="n">
         <v>267.0</v>
+      </c>
+      <c r="CZ189" t="n">
+        <v>268.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B190" t="n">
         <v>380.0</v>
@@ -59784,12 +60349,15 @@
         <v>1489.0</v>
       </c>
       <c r="CY190" t="n">
+        <v>1525.0</v>
+      </c>
+      <c r="CZ190" t="n">
         <v>1525.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B191" t="n">
         <v>0.0</v>
@@ -60095,12 +60663,15 @@
         <v>0.0</v>
       </c>
       <c r="CY191" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ191" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B192" t="n">
         <v>14.0</v>
@@ -60407,11 +60978,14 @@
       </c>
       <c r="CY192" t="n">
         <v>149.0</v>
+      </c>
+      <c r="CZ192" t="n">
+        <v>154.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B193" t="n">
         <v>70.0</v>
@@ -60717,12 +61291,15 @@
         <v>358.0</v>
       </c>
       <c r="CY193" t="n">
+        <v>358.0</v>
+      </c>
+      <c r="CZ193" t="n">
         <v>358.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B194" t="n">
         <v>0.0</v>
@@ -61028,12 +61605,15 @@
         <v>0.0</v>
       </c>
       <c r="CY194" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ194" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B195" t="n">
         <v>39.0</v>
@@ -61340,11 +61920,14 @@
       </c>
       <c r="CY195" t="n">
         <v>169.0</v>
+      </c>
+      <c r="CZ195" t="n">
+        <v>167.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B196" t="n">
         <v>0.0</v>
@@ -61650,12 +62233,15 @@
         <v>28.0</v>
       </c>
       <c r="CY196" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="CZ196" t="n">
         <v>28.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B197" t="n">
         <v>39.0</v>
@@ -61962,11 +62548,14 @@
       </c>
       <c r="CY197" t="n">
         <v>244.0</v>
+      </c>
+      <c r="CZ197" t="n">
+        <v>246.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B198" t="n">
         <v>299.0</v>
@@ -62273,11 +62862,14 @@
       </c>
       <c r="CY198" t="n">
         <v>699.0</v>
+      </c>
+      <c r="CZ198" t="n">
+        <v>700.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B199" t="n">
         <v>3.0</v>
@@ -62583,12 +63175,15 @@
         <v>54.0</v>
       </c>
       <c r="CY199" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="CZ199" t="n">
         <v>54.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B200" t="n">
         <v>1.0</v>
@@ -62894,12 +63489,15 @@
         <v>3.0</v>
       </c>
       <c r="CY200" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CZ200" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B201" t="n">
         <v>60.0</v>
@@ -63206,11 +63804,14 @@
       </c>
       <c r="CY201" t="n">
         <v>391.0</v>
+      </c>
+      <c r="CZ201" t="n">
+        <v>393.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B202" t="n">
         <v>326.0</v>
@@ -63517,11 +64118,14 @@
       </c>
       <c r="CY202" t="n">
         <v>1729.0</v>
+      </c>
+      <c r="CZ202" t="n">
+        <v>1749.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B203" t="n">
         <v>77.0</v>
@@ -63827,12 +64431,15 @@
         <v>474.0</v>
       </c>
       <c r="CY203" t="n">
+        <v>476.0</v>
+      </c>
+      <c r="CZ203" t="n">
         <v>476.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B204" t="n">
         <v>307.0</v>
@@ -64139,11 +64746,14 @@
       </c>
       <c r="CY204" t="n">
         <v>1551.0</v>
+      </c>
+      <c r="CZ204" t="n">
+        <v>1556.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B205" t="n">
         <v>86.0</v>
@@ -64450,11 +65060,14 @@
       </c>
       <c r="CY205" t="n">
         <v>312.0</v>
+      </c>
+      <c r="CZ205" t="n">
+        <v>319.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B206" t="n">
         <v>58.0</v>
@@ -64760,12 +65373,15 @@
         <v>199.0</v>
       </c>
       <c r="CY206" t="n">
+        <v>202.0</v>
+      </c>
+      <c r="CZ206" t="n">
         <v>202.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B207" t="n">
         <v>49.0</v>
@@ -65072,11 +65688,14 @@
       </c>
       <c r="CY207" t="n">
         <v>242.0</v>
+      </c>
+      <c r="CZ207" t="n">
+        <v>246.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B208" t="n">
         <v>0.0</v>
@@ -65382,12 +66001,15 @@
         <v>935.0</v>
       </c>
       <c r="CY208" t="n">
+        <v>935.0</v>
+      </c>
+      <c r="CZ208" t="n">
         <v>935.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B209" t="n">
         <v>14.0</v>
@@ -65693,12 +66315,15 @@
         <v>231.0</v>
       </c>
       <c r="CY209" t="n">
+        <v>231.0</v>
+      </c>
+      <c r="CZ209" t="n">
         <v>231.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B210" t="n">
         <v>20.0</v>
@@ -66005,11 +66630,14 @@
       </c>
       <c r="CY210" t="n">
         <v>105.0</v>
+      </c>
+      <c r="CZ210" t="n">
+        <v>106.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B211" t="n">
         <v>0.0</v>
@@ -66315,12 +66943,15 @@
         <v>0.0</v>
       </c>
       <c r="CY211" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ211" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B212" t="n">
         <v>41.0</v>
@@ -66627,11 +67258,14 @@
       </c>
       <c r="CY212" t="n">
         <v>118.0</v>
+      </c>
+      <c r="CZ212" t="n">
+        <v>119.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B213" t="n">
         <v>182.0</v>
@@ -66938,11 +67572,14 @@
       </c>
       <c r="CY213" t="n">
         <v>635.0</v>
+      </c>
+      <c r="CZ213" t="n">
+        <v>636.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B214" t="n">
         <v>5.0</v>
@@ -67248,12 +67885,15 @@
         <v>22.0</v>
       </c>
       <c r="CY214" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="CZ214" t="n">
         <v>23.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B215" t="n">
         <v>2052.0</v>
@@ -67559,12 +68199,15 @@
         <v>7564.0</v>
       </c>
       <c r="CY215" t="n">
+        <v>7564.0</v>
+      </c>
+      <c r="CZ215" t="n">
         <v>7564.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B216" t="n">
         <v>59.0</v>
@@ -67870,12 +68513,15 @@
         <v>449.0</v>
       </c>
       <c r="CY216" t="n">
+        <v>452.0</v>
+      </c>
+      <c r="CZ216" t="n">
         <v>452.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B217" t="n">
         <v>37.0</v>
@@ -68182,11 +68828,14 @@
       </c>
       <c r="CY217" t="n">
         <v>1687.0</v>
+      </c>
+      <c r="CZ217" t="n">
+        <v>1706.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B218" t="n">
         <v>77.0</v>
@@ -68493,11 +69142,14 @@
       </c>
       <c r="CY218" t="n">
         <v>320.0</v>
+      </c>
+      <c r="CZ218" t="n">
+        <v>321.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B219" t="n">
         <v>1.0</v>
@@ -68803,12 +69455,15 @@
         <v>58.0</v>
       </c>
       <c r="CY219" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="CZ219" t="n">
         <v>58.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B220" t="n">
         <v>10.0</v>
@@ -69114,12 +69769,15 @@
         <v>100.0</v>
       </c>
       <c r="CY220" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="CZ220" t="n">
         <v>100.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B221" t="n">
         <v>19.0</v>
@@ -69426,11 +70084,14 @@
       </c>
       <c r="CY221" t="n">
         <v>188.0</v>
+      </c>
+      <c r="CZ221" t="n">
+        <v>190.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B222" t="n">
         <v>69.0</v>
@@ -69737,11 +70398,14 @@
       </c>
       <c r="CY222" t="n">
         <v>352.0</v>
+      </c>
+      <c r="CZ222" t="n">
+        <v>353.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B223" t="n">
         <v>6705.0</v>
@@ -70048,11 +70712,14 @@
       </c>
       <c r="CY223" t="n">
         <v>33430.0</v>
+      </c>
+      <c r="CZ223" t="n">
+        <v>33657.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B224" t="n">
         <v>2484.0</v>
@@ -70359,11 +71026,14 @@
       </c>
       <c r="CY224" t="n">
         <v>7928.0</v>
+      </c>
+      <c r="CZ224" t="n">
+        <v>7951.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B225" t="n">
         <v>1.0</v>
@@ -70669,12 +71339,15 @@
         <v>11.0</v>
       </c>
       <c r="CY225" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="CZ225" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B226" t="n">
         <v>0.0</v>
@@ -70980,12 +71653,15 @@
         <v>0.0</v>
       </c>
       <c r="CY226" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ226" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B227" t="n">
         <v>10.0</v>
@@ -71291,12 +71967,15 @@
         <v>22.0</v>
       </c>
       <c r="CY227" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="CZ227" t="n">
         <v>23.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B228" t="n">
         <v>138.0</v>
@@ -71603,11 +72282,14 @@
       </c>
       <c r="CY228" t="n">
         <v>897.0</v>
+      </c>
+      <c r="CZ228" t="n">
+        <v>902.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B229" t="n">
         <v>1242.0</v>
@@ -71914,11 +72596,14 @@
       </c>
       <c r="CY229" t="n">
         <v>7887.0</v>
+      </c>
+      <c r="CZ229" t="n">
+        <v>7904.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B230" t="n">
         <v>0.0</v>
@@ -72224,12 +72909,15 @@
         <v>0.0</v>
       </c>
       <c r="CY230" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ230" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B231" t="n">
         <v>21.0</v>
@@ -72535,12 +73223,15 @@
         <v>173.0</v>
       </c>
       <c r="CY231" t="n">
+        <v>173.0</v>
+      </c>
+      <c r="CZ231" t="n">
         <v>173.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B232" t="n">
         <v>129.0</v>
@@ -72847,11 +73538,14 @@
       </c>
       <c r="CY232" t="n">
         <v>635.0</v>
+      </c>
+      <c r="CZ232" t="n">
+        <v>636.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B233" t="n">
         <v>291.0</v>
@@ -73158,11 +73852,14 @@
       </c>
       <c r="CY233" t="n">
         <v>1804.0</v>
+      </c>
+      <c r="CZ233" t="n">
+        <v>1813.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B234" t="n">
         <v>51.0</v>
@@ -73468,12 +74165,15 @@
         <v>293.0</v>
       </c>
       <c r="CY234" t="n">
+        <v>297.0</v>
+      </c>
+      <c r="CZ234" t="n">
         <v>297.0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B235" t="n">
         <v>35.0</v>
@@ -73779,12 +74479,15 @@
         <v>104.0</v>
       </c>
       <c r="CY235" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="CZ235" t="n">
         <v>105.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B236" t="n">
         <v>0.0</v>
@@ -74090,12 +74793,15 @@
         <v>0.0</v>
       </c>
       <c r="CY236" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ236" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B237" t="n">
         <v>247.0</v>
@@ -74401,12 +75107,15 @@
         <v>1398.0</v>
       </c>
       <c r="CY237" t="n">
+        <v>1398.0</v>
+      </c>
+      <c r="CZ237" t="n">
         <v>1398.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B238" t="n">
         <v>9.0</v>
@@ -74712,12 +75421,15 @@
         <v>9.0</v>
       </c>
       <c r="CY238" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="CZ238" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B239" t="n">
         <v>170.0</v>
@@ -75024,11 +75736,14 @@
       </c>
       <c r="CY239" t="n">
         <v>757.0</v>
+      </c>
+      <c r="CZ239" t="n">
+        <v>767.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B240" t="n">
         <v>88.0</v>
@@ -75335,11 +76050,14 @@
       </c>
       <c r="CY240" t="n">
         <v>362.0</v>
+      </c>
+      <c r="CZ240" t="n">
+        <v>366.0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B241" t="n">
         <v>83.0</v>
@@ -75646,11 +76364,14 @@
       </c>
       <c r="CY241" t="n">
         <v>439.0</v>
+      </c>
+      <c r="CZ241" t="n">
+        <v>446.0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B242" t="n">
         <v>62.0</v>
@@ -75957,11 +76678,14 @@
       </c>
       <c r="CY242" t="n">
         <v>599.0</v>
+      </c>
+      <c r="CZ242" t="n">
+        <v>609.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B243" t="n">
         <v>0.0</v>
@@ -76267,12 +76991,15 @@
         <v>0.0</v>
       </c>
       <c r="CY243" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ243" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B244" t="n">
         <v>127.0</v>
@@ -76578,12 +77305,15 @@
         <v>358.0</v>
       </c>
       <c r="CY244" t="n">
+        <v>362.0</v>
+      </c>
+      <c r="CZ244" t="n">
         <v>362.0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B245" t="n">
         <v>2.0</v>
@@ -76889,12 +77619,15 @@
         <v>44.0</v>
       </c>
       <c r="CY245" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="CZ245" t="n">
         <v>45.0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B246" t="n">
         <v>0.0</v>
@@ -77200,12 +77933,15 @@
         <v>0.0</v>
       </c>
       <c r="CY246" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ246" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B247" t="n">
         <v>46.0</v>
@@ -77511,12 +78247,15 @@
         <v>276.0</v>
       </c>
       <c r="CY247" t="n">
+        <v>276.0</v>
+      </c>
+      <c r="CZ247" t="n">
         <v>276.0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B248" t="n">
         <v>0.0</v>
@@ -77823,11 +78562,14 @@
       </c>
       <c r="CY248" t="n">
         <v>194.0</v>
+      </c>
+      <c r="CZ248" t="n">
+        <v>213.0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B249" t="n">
         <v>188.0</v>
@@ -78134,11 +78876,14 @@
       </c>
       <c r="CY249" t="n">
         <v>4898.0</v>
+      </c>
+      <c r="CZ249" t="n">
+        <v>4972.0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B250" t="n">
         <v>86.0</v>
@@ -78445,11 +79190,14 @@
       </c>
       <c r="CY250" t="n">
         <v>765.0</v>
+      </c>
+      <c r="CZ250" t="n">
+        <v>774.0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B251" t="n">
         <v>50.0</v>
@@ -78756,11 +79504,14 @@
       </c>
       <c r="CY251" t="n">
         <v>175.0</v>
+      </c>
+      <c r="CZ251" t="n">
+        <v>177.0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B252" t="n">
         <v>122.0</v>
@@ -79067,11 +79818,14 @@
       </c>
       <c r="CY252" t="n">
         <v>1028.0</v>
+      </c>
+      <c r="CZ252" t="n">
+        <v>1041.0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B253" t="n">
         <v>235.0</v>
@@ -79377,12 +80131,15 @@
         <v>1295.0</v>
       </c>
       <c r="CY253" t="n">
+        <v>1295.0</v>
+      </c>
+      <c r="CZ253" t="n">
         <v>1295.0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B254" t="n">
         <v>0.0</v>
@@ -79688,12 +80445,15 @@
         <v>0.0</v>
       </c>
       <c r="CY254" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CZ254" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B255" t="n">
         <v>41.0</v>
@@ -80000,11 +80760,14 @@
       </c>
       <c r="CY255" t="n">
         <v>210.0</v>
+      </c>
+      <c r="CZ255" t="n">
+        <v>211.0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B256" t="n">
         <v>2.0</v>
@@ -80311,11 +81074,14 @@
       </c>
       <c r="CY256" t="n">
         <v>189.0</v>
+      </c>
+      <c r="CZ256" t="n">
+        <v>191.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B257" t="n">
         <v>11.0</v>
@@ -80622,6 +81388,9 @@
       </c>
       <c r="CY257" t="n">
         <v>151.0</v>
+      </c>
+      <c r="CZ257" t="n">
+        <v>156.0</v>
       </c>
     </row>
   </sheetData>
